--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Fisheries area.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Fisheries area.xlsx
@@ -26,130 +26,1624 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Adriatic</t>
+  </si>
+  <si>
+    <t>M3721</t>
+  </si>
+  <si>
+    <t>Aegean</t>
+  </si>
+  <si>
+    <t>M3731</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>M4111</t>
+  </si>
+  <si>
+    <t>Amundsen Sea</t>
+  </si>
+  <si>
+    <t>M883</t>
+  </si>
+  <si>
+    <t>Archipelago Sea</t>
+  </si>
+  <si>
+    <t>M27IIId29</t>
+  </si>
+  <si>
+    <t>Arctic Sea</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>Atlantic, Antarctic</t>
+  </si>
+  <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>Atlantic, Eastern-central</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>Atlantic, Northeast</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>Atlantic, Northwest</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>Atlantic, Southeast</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>Atlantic, Southwest</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>Atlantic, Western-central</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>Azores Grounds</t>
+  </si>
+  <si>
+    <t>M27X</t>
+  </si>
+  <si>
+    <t>Azores Grounds - Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27Xa1</t>
+  </si>
+  <si>
+    <t>Azores Grounds - Non-Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27Xa2</t>
+  </si>
+  <si>
+    <t>Azores Grounds (Division)</t>
+  </si>
+  <si>
+    <t>M27Xa</t>
+  </si>
+  <si>
+    <t>Azov Sea</t>
+  </si>
+  <si>
+    <t>M3743</t>
+  </si>
+  <si>
+    <t>Balearic</t>
+  </si>
+  <si>
+    <t>M3711</t>
+  </si>
+  <si>
+    <t>Baltic West Of Bornholm</t>
+  </si>
+  <si>
+    <t>M27IIId24</t>
+  </si>
+  <si>
+    <t>Banzare Bank</t>
+  </si>
+  <si>
+    <t>M5843</t>
+  </si>
+  <si>
+    <t>Barents Sea</t>
+  </si>
+  <si>
+    <t>M27I</t>
+  </si>
+  <si>
+    <t>Barents Sea - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27Ia</t>
+  </si>
+  <si>
+    <t>Barents Sea Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27Ib</t>
+  </si>
+  <si>
+    <t>Bay Of Bengal</t>
+  </si>
+  <si>
+    <t>M571</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay</t>
+  </si>
+  <si>
+    <t>M27VIII</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - Central</t>
+  </si>
+  <si>
+    <t>M27VIIIb</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - North</t>
+  </si>
+  <si>
+    <t>M27VIIIa</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - Offshore</t>
+  </si>
+  <si>
+    <t>M27VIIId</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - Offshore - Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27VIIId1</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - Offshore - Non-Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27VIIId2</t>
+  </si>
+  <si>
+    <t>Bay Of Biscay - South</t>
+  </si>
+  <si>
+    <t>M27VIIIc</t>
+  </si>
+  <si>
+    <t>Belt Sea</t>
+  </si>
+  <si>
+    <t>M27III22</t>
+  </si>
+  <si>
+    <t>Black Sea</t>
+  </si>
+  <si>
+    <t>M374</t>
+  </si>
+  <si>
+    <t>Black Sea (Division)</t>
+  </si>
+  <si>
+    <t>M3742</t>
+  </si>
+  <si>
+    <t>Bothnian Bay</t>
+  </si>
+  <si>
+    <t>M27IIId31</t>
+  </si>
+  <si>
+    <t>Bothnian Sea</t>
+  </si>
+  <si>
+    <t>M27IIId30</t>
+  </si>
+  <si>
+    <t>Bouvet</t>
+  </si>
+  <si>
+    <t>M486</t>
+  </si>
+  <si>
+    <t>Bristol Channel</t>
+  </si>
+  <si>
+    <t>M27VIIf</t>
+  </si>
+  <si>
+    <t>Canadian Waters</t>
+  </si>
+  <si>
+    <t>M215Zc</t>
+  </si>
+  <si>
+    <t>Canaries/Madeira Insular</t>
+  </si>
+  <si>
+    <t>M3412</t>
+  </si>
+  <si>
+    <t>Cape Cross</t>
+  </si>
+  <si>
+    <t>M4714</t>
+  </si>
+  <si>
+    <t>Cape Of Good Hope</t>
+  </si>
+  <si>
+    <t>M4716</t>
+  </si>
+  <si>
+    <t>Cape Palmeirinhas</t>
+  </si>
+  <si>
+    <t>M4711</t>
+  </si>
+  <si>
+    <t>Cape Salinas</t>
+  </si>
+  <si>
+    <t>M4712</t>
+  </si>
+  <si>
+    <t>Cape Verde Coastal</t>
+  </si>
+  <si>
+    <t>M3431</t>
+  </si>
+  <si>
+    <t>Cape Verde Insular</t>
+  </si>
+  <si>
+    <t>M3432</t>
+  </si>
+  <si>
+    <t>Celtic Sea North</t>
+  </si>
+  <si>
+    <t>M27VIIg</t>
+  </si>
+  <si>
+    <t>Celtic Sea South</t>
+  </si>
+  <si>
+    <t>M27VIIh</t>
+  </si>
+  <si>
+    <t>Central (Atlantic)</t>
+  </si>
+  <si>
+    <t>M412</t>
+  </si>
+  <si>
+    <t>Central (Indian)</t>
+  </si>
+  <si>
+    <t>M573</t>
+  </si>
+  <si>
+    <t>Central (Pacific)</t>
+  </si>
+  <si>
+    <t>M872</t>
+  </si>
+  <si>
+    <t>Central Coastal</t>
+  </si>
+  <si>
+    <t>M8721</t>
+  </si>
+  <si>
+    <t>Central Gulf Of Guinea</t>
+  </si>
+  <si>
+    <t>M3435</t>
+  </si>
+  <si>
+    <t>Central Intermediate</t>
+  </si>
+  <si>
+    <t>M8722</t>
+  </si>
+  <si>
+    <t>Central Mediterranean</t>
+  </si>
+  <si>
+    <t>M372</t>
+  </si>
+  <si>
+    <t>Central North Sea</t>
+  </si>
+  <si>
+    <t>M27IVb</t>
+  </si>
+  <si>
+    <t>Central Northeast Atlantic - South</t>
+  </si>
+  <si>
+    <t>M27XIIc</t>
+  </si>
+  <si>
+    <t>Central Oceanic (Atlantic)</t>
+  </si>
+  <si>
+    <t>M4124</t>
+  </si>
+  <si>
+    <t>Central Oceanic (Pacific)</t>
+  </si>
+  <si>
+    <t>M8726</t>
+  </si>
+  <si>
+    <t>Crozet</t>
+  </si>
+  <si>
+    <t>M586</t>
+  </si>
+  <si>
+    <t>Cunene</t>
+  </si>
+  <si>
+    <t>M4713</t>
+  </si>
+  <si>
+    <t>East Greenland</t>
+  </si>
+  <si>
+    <t>M27XIV</t>
+  </si>
+  <si>
+    <t>East Of Gotland (Open Sea)</t>
+  </si>
+  <si>
+    <t>M27IIId282</t>
+  </si>
+  <si>
+    <t>East Of Gotland Or Gulf Of Riga</t>
+  </si>
+  <si>
+    <t>M27IIId28</t>
+  </si>
+  <si>
+    <t>Eastern Agulhas</t>
+  </si>
+  <si>
+    <t>M4722</t>
+  </si>
+  <si>
+    <t>Eastern Arabian Sea, Laccadives</t>
+  </si>
+  <si>
+    <t>M514</t>
+  </si>
+  <si>
+    <t>Eastern English Channel</t>
+  </si>
+  <si>
+    <t>M27VIId</t>
+  </si>
+  <si>
+    <t>Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t>M373</t>
+  </si>
+  <si>
+    <t>Eastern Ross Sea</t>
+  </si>
+  <si>
+    <t>M881</t>
+  </si>
+  <si>
+    <t>Eastern Subdivision</t>
+  </si>
+  <si>
+    <t>M215Ze</t>
+  </si>
+  <si>
+    <t>Enderby-Wilkes</t>
+  </si>
+  <si>
+    <t>M584</t>
+  </si>
+  <si>
+    <t>Faeroe Plateau - Part Of Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27Vb1a</t>
+  </si>
+  <si>
+    <t>Faeroe Plateau - Part Of Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27Vb1b</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.10.1</t>
+  </si>
+  <si>
+    <t>M31101</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.10.2</t>
+  </si>
+  <si>
+    <t>M31102</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.10.3</t>
+  </si>
+  <si>
+    <t>M31103</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.10.4</t>
+  </si>
+  <si>
+    <t>M31104</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.1</t>
+  </si>
+  <si>
+    <t>M3121</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.2</t>
+  </si>
+  <si>
+    <t>M3122</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.3</t>
+  </si>
+  <si>
+    <t>M3123</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.4</t>
+  </si>
+  <si>
+    <t>M3124</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.5</t>
+  </si>
+  <si>
+    <t>M3125</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.2.6</t>
+  </si>
+  <si>
+    <t>M3126</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.3.1</t>
+  </si>
+  <si>
+    <t>M3131</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.3.2</t>
+  </si>
+  <si>
+    <t>M3132</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.3.3</t>
+  </si>
+  <si>
+    <t>M3133</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.4.1</t>
+  </si>
+  <si>
+    <t>M3141</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.4.2</t>
+  </si>
+  <si>
+    <t>M3142</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.7.1</t>
+  </si>
+  <si>
+    <t>M3171</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.7.2</t>
+  </si>
+  <si>
+    <t>M3172</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.7.3</t>
+  </si>
+  <si>
+    <t>M3173</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.8.1</t>
+  </si>
+  <si>
+    <t>M3181</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _31.8.2</t>
+  </si>
+  <si>
+    <t>M3182</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _81.1.1</t>
+  </si>
+  <si>
+    <t>M8111</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Division  _81.1.2</t>
+  </si>
+  <si>
+    <t>M8112</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.1</t>
+  </si>
+  <si>
+    <t>M311</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.10</t>
+  </si>
+  <si>
+    <t>M3110</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.11</t>
+  </si>
+  <si>
+    <t>M3111</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.2</t>
+  </si>
+  <si>
+    <t>M312</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.3</t>
+  </si>
+  <si>
+    <t>M313</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.4</t>
+  </si>
+  <si>
+    <t>M314</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.5</t>
+  </si>
+  <si>
+    <t>M315</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.6</t>
+  </si>
+  <si>
+    <t>M316</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.7</t>
+  </si>
+  <si>
+    <t>M317</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.8</t>
+  </si>
+  <si>
+    <t>M318</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _31.9</t>
+  </si>
+  <si>
+    <t>M319</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.1</t>
+  </si>
+  <si>
+    <t>M711</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.2</t>
+  </si>
+  <si>
+    <t>M712</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.3</t>
+  </si>
+  <si>
+    <t>M713</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.4</t>
+  </si>
+  <si>
+    <t>M714</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.5</t>
+  </si>
+  <si>
+    <t>M715</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.6</t>
+  </si>
+  <si>
+    <t>M716</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.7</t>
+  </si>
+  <si>
+    <t>M717</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _71.8</t>
+  </si>
+  <si>
+    <t>M718</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.1</t>
+  </si>
+  <si>
+    <t>M811</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.2</t>
+  </si>
+  <si>
+    <t>M812</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.3</t>
+  </si>
+  <si>
+    <t>M813</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.4</t>
+  </si>
+  <si>
+    <t>M814</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.5</t>
+  </si>
+  <si>
+    <t>M815</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.6</t>
+  </si>
+  <si>
+    <t>M816</t>
+  </si>
+  <si>
+    <t>Fao - Proposed Sub Area  _81.7</t>
+  </si>
+  <si>
+    <t>M817</t>
+  </si>
+  <si>
+    <t>Fao Division 21.0.A</t>
+  </si>
+  <si>
+    <t>M210A</t>
+  </si>
+  <si>
+    <t>Fao Division 21.0.B</t>
+  </si>
+  <si>
+    <t>M210B</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.A</t>
+  </si>
+  <si>
+    <t>M211A</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.B</t>
+  </si>
+  <si>
+    <t>M211B</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.C</t>
+  </si>
+  <si>
+    <t>M211C</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.D</t>
+  </si>
+  <si>
+    <t>M211D</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.E</t>
+  </si>
+  <si>
+    <t>M211E</t>
+  </si>
+  <si>
+    <t>Fao Division 21.1.F</t>
+  </si>
+  <si>
+    <t>M211F</t>
+  </si>
+  <si>
+    <t>Fao Division 21.2.G</t>
+  </si>
+  <si>
+    <t>M212G</t>
+  </si>
+  <si>
+    <t>Fao Division 21.2.H</t>
+  </si>
+  <si>
+    <t>M212H</t>
+  </si>
+  <si>
+    <t>Fao Division 21.2.J</t>
+  </si>
+  <si>
+    <t>M212J</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.K</t>
+  </si>
+  <si>
+    <t>M213K</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.L</t>
+  </si>
+  <si>
+    <t>M213L</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.M</t>
+  </si>
+  <si>
+    <t>M213M</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.N</t>
+  </si>
+  <si>
+    <t>M213N</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.O</t>
+  </si>
+  <si>
+    <t>M213O</t>
+  </si>
+  <si>
+    <t>Fao Division 21.3.P</t>
+  </si>
+  <si>
+    <t>M213P</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.R</t>
+  </si>
+  <si>
+    <t>M214R</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.S</t>
+  </si>
+  <si>
+    <t>M214S</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.T</t>
+  </si>
+  <si>
+    <t>M214T</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.V</t>
+  </si>
+  <si>
+    <t>M214V</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.W</t>
+  </si>
+  <si>
+    <t>M214W</t>
+  </si>
+  <si>
+    <t>Fao Division 21.4.X</t>
+  </si>
+  <si>
+    <t>M214X</t>
+  </si>
+  <si>
+    <t>Fao Division 21.5.Y</t>
+  </si>
+  <si>
+    <t>M215Y</t>
+  </si>
+  <si>
+    <t>Fao Division 21.5.Z</t>
+  </si>
+  <si>
+    <t>M215Z</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.A</t>
+  </si>
+  <si>
+    <t>M216A</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.B</t>
+  </si>
+  <si>
+    <t>M216B</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.C</t>
+  </si>
+  <si>
+    <t>M216C</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.D</t>
+  </si>
+  <si>
+    <t>M216D</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.E</t>
+  </si>
+  <si>
+    <t>M216E</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.F</t>
+  </si>
+  <si>
+    <t>M216F</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.G</t>
+  </si>
+  <si>
+    <t>M216G</t>
+  </si>
+  <si>
+    <t>Fao Division 21.6.H</t>
+  </si>
+  <si>
+    <t>M216H</t>
+  </si>
+  <si>
+    <t>Fao Division 27.Iii.D</t>
+  </si>
+  <si>
+    <t>M27IIId</t>
+  </si>
+  <si>
+    <t>Fao Division 71.6.1</t>
+  </si>
+  <si>
+    <t>M7161</t>
+  </si>
+  <si>
+    <t>Fao Division 71.6.2</t>
+  </si>
+  <si>
+    <t>M7162</t>
+  </si>
+  <si>
     <t>Fao Sub Area 21.0</t>
   </si>
   <si>
     <t>M210</t>
   </si>
   <si>
-    <t>Fao Division 21.0.A</t>
-  </si>
-  <si>
-    <t>M210A</t>
-  </si>
-  <si>
-    <t>Fao Division 21.0.B</t>
-  </si>
-  <si>
-    <t>M210B</t>
-  </si>
-  <si>
     <t>Fao Sub Area 21.1</t>
   </si>
   <si>
     <t>M211</t>
   </si>
   <si>
-    <t>Fao Division 21.1.A</t>
-  </si>
-  <si>
-    <t>M211A</t>
-  </si>
-  <si>
-    <t>Fao Division 21.1.B</t>
-  </si>
-  <si>
-    <t>M211B</t>
-  </si>
-  <si>
-    <t>Fao Division 21.1.C</t>
-  </si>
-  <si>
-    <t>M211C</t>
-  </si>
-  <si>
-    <t>Fao Division 21.1.D</t>
-  </si>
-  <si>
-    <t>M211D</t>
-  </si>
-  <si>
-    <t>Fao Division 21.1.E</t>
-  </si>
-  <si>
-    <t>M211E</t>
-  </si>
-  <si>
-    <t>Fao Division 21.1.F</t>
-  </si>
-  <si>
-    <t>M211F</t>
-  </si>
-  <si>
     <t>Fao Sub Area 21.2</t>
   </si>
   <si>
     <t>M212</t>
   </si>
   <si>
-    <t>Fao Division 21.2.G</t>
-  </si>
-  <si>
-    <t>M212G</t>
-  </si>
-  <si>
-    <t>Fao Division 21.2.H</t>
-  </si>
-  <si>
-    <t>M212H</t>
-  </si>
-  <si>
-    <t>Fao Division 21.2.J</t>
-  </si>
-  <si>
-    <t>M212J</t>
-  </si>
-  <si>
     <t>Fao Sub Area 21.3</t>
   </si>
   <si>
     <t>M213</t>
   </si>
   <si>
-    <t>Fao Division 21.3.K</t>
-  </si>
-  <si>
-    <t>M213K</t>
-  </si>
-  <si>
-    <t>Fao Division 21.3.L</t>
-  </si>
-  <si>
-    <t>M213L</t>
-  </si>
-  <si>
-    <t>Fao Division 21.3.M</t>
-  </si>
-  <si>
-    <t>M213M</t>
-  </si>
-  <si>
-    <t>Fao Division 21.3.N</t>
-  </si>
-  <si>
-    <t>M213N</t>
-  </si>
-  <si>
-    <t>Fao Division 21.3.O</t>
-  </si>
-  <si>
-    <t>M213O</t>
-  </si>
-  <si>
-    <t>Fao Division 21.3.P</t>
-  </si>
-  <si>
-    <t>M213P</t>
+    <t>Fao Sub Area 21.4</t>
+  </si>
+  <si>
+    <t>M214</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 21.5</t>
+  </si>
+  <si>
+    <t>M215</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 21.6</t>
+  </si>
+  <si>
+    <t>M216</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 27.Vii</t>
+  </si>
+  <si>
+    <t>M27VII</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.1</t>
+  </si>
+  <si>
+    <t>M471</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.2</t>
+  </si>
+  <si>
+    <t>M472</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.A</t>
+  </si>
+  <si>
+    <t>M47A</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.B</t>
+  </si>
+  <si>
+    <t>M47B</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.C</t>
+  </si>
+  <si>
+    <t>M47C</t>
+  </si>
+  <si>
+    <t>Fao Sub Area 47.D</t>
+  </si>
+  <si>
+    <t>M47D</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.1.11</t>
+  </si>
+  <si>
+    <t>M34111</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.1.12</t>
+  </si>
+  <si>
+    <t>M34112</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.1.13</t>
+  </si>
+  <si>
+    <t>M34113</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.1.31</t>
+  </si>
+  <si>
+    <t>M34131</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.1.32</t>
+  </si>
+  <si>
+    <t>M34132</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.3.11</t>
+  </si>
+  <si>
+    <t>M34311</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.3.12</t>
+  </si>
+  <si>
+    <t>M34312</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 34.3.13</t>
+  </si>
+  <si>
+    <t>M34313</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 58.4.3.A</t>
+  </si>
+  <si>
+    <t>M5843a</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 58.4.3.B</t>
+  </si>
+  <si>
+    <t>M5843b</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.11</t>
+  </si>
+  <si>
+    <t>M87111</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.12</t>
+  </si>
+  <si>
+    <t>M87112</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.13</t>
+  </si>
+  <si>
+    <t>M87113</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.14</t>
+  </si>
+  <si>
+    <t>M87114</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.15</t>
+  </si>
+  <si>
+    <t>M87115</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.21</t>
+  </si>
+  <si>
+    <t>M87121</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.22</t>
+  </si>
+  <si>
+    <t>M87122</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.23</t>
+  </si>
+  <si>
+    <t>M87123</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.24</t>
+  </si>
+  <si>
+    <t>M87124</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.1.25</t>
+  </si>
+  <si>
+    <t>M87125</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.11</t>
+  </si>
+  <si>
+    <t>M87211</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.12</t>
+  </si>
+  <si>
+    <t>M87212</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.13</t>
+  </si>
+  <si>
+    <t>M87213</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.14</t>
+  </si>
+  <si>
+    <t>M87214</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.15</t>
+  </si>
+  <si>
+    <t>M87215</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.16</t>
+  </si>
+  <si>
+    <t>M87216</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.17</t>
+  </si>
+  <si>
+    <t>M87217</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.21</t>
+  </si>
+  <si>
+    <t>M87221</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.22</t>
+  </si>
+  <si>
+    <t>M87222</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.23</t>
+  </si>
+  <si>
+    <t>M87223</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.24</t>
+  </si>
+  <si>
+    <t>M87224</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.25</t>
+  </si>
+  <si>
+    <t>M87225</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.26</t>
+  </si>
+  <si>
+    <t>M87226</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.2.27</t>
+  </si>
+  <si>
+    <t>M87227</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.11</t>
+  </si>
+  <si>
+    <t>M87311</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.12</t>
+  </si>
+  <si>
+    <t>M87312</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.13</t>
+  </si>
+  <si>
+    <t>M87313</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.21</t>
+  </si>
+  <si>
+    <t>M87321</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.22</t>
+  </si>
+  <si>
+    <t>M87322</t>
+  </si>
+  <si>
+    <t>Fao Sub Division 87.3.23</t>
+  </si>
+  <si>
+    <t>M87323</t>
+  </si>
+  <si>
+    <t>Faroe Bank</t>
+  </si>
+  <si>
+    <t>M27Vb2</t>
+  </si>
+  <si>
+    <t>Faroe Plateau</t>
+  </si>
+  <si>
+    <t>M27Vb1</t>
+  </si>
+  <si>
+    <t>Faroes Grounds</t>
+  </si>
+  <si>
+    <t>M27Vb</t>
+  </si>
+  <si>
+    <t>Galapagos</t>
+  </si>
+  <si>
+    <t>M8713</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>M512</t>
+  </si>
+  <si>
+    <t>Gulf Of Finland</t>
+  </si>
+  <si>
+    <t>M27IIId32</t>
+  </si>
+  <si>
+    <t>Gulf Of Lions</t>
+  </si>
+  <si>
+    <t>M3712</t>
+  </si>
+  <si>
+    <t>Gulf Of Riga</t>
+  </si>
+  <si>
+    <t>M27IIId281</t>
+  </si>
+  <si>
+    <t>Iceland And Faroes Grounds</t>
+  </si>
+  <si>
+    <t>M27V</t>
+  </si>
+  <si>
+    <t>Iceland Grounds</t>
+  </si>
+  <si>
+    <t>M27Va</t>
+  </si>
+  <si>
+    <t>Icelandic Shelf</t>
+  </si>
+  <si>
+    <t>M27Va2</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>Indian Ocean, Antarctic and Southern</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>Indian Ocean, Eastern</t>
+  </si>
+  <si>
+    <t>M57</t>
+  </si>
+  <si>
+    <t>Indian Ocean, Western</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>Inland waters - Antarctica</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>Inland waters - Asia</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>Inland waters - Europe</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>Inland waters - Former Ussr Area</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>Inland waters - North America</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>Inland waters - Oceania</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>Inland waters - South America</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>Inland waters – Africa</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>Ionian</t>
+  </si>
+  <si>
+    <t>M3722</t>
+  </si>
+  <si>
+    <t>Irish Sea</t>
+  </si>
+  <si>
+    <t>M27VIIa</t>
+  </si>
+  <si>
+    <t>Juan Fernandez</t>
+  </si>
+  <si>
+    <t>M8724</t>
+  </si>
+  <si>
+    <t>Kerguelen</t>
+  </si>
+  <si>
+    <t>M5851</t>
+  </si>
+  <si>
+    <t>Kerguelen, Mcdonald</t>
+  </si>
+  <si>
+    <t>M585</t>
+  </si>
+  <si>
+    <t>Lena Bank</t>
+  </si>
+  <si>
+    <t>M5844b</t>
+  </si>
+  <si>
+    <t>Levant</t>
+  </si>
+  <si>
+    <t>M3732</t>
+  </si>
+  <si>
+    <t>Madagascar And Mozambique Channel</t>
+  </si>
+  <si>
+    <t>M516</t>
+  </si>
+  <si>
+    <t>Marion-Edward</t>
+  </si>
+  <si>
+    <t>M587</t>
+  </si>
+  <si>
+    <t>Marmara Sea</t>
+  </si>
+  <si>
+    <t>M3741</t>
+  </si>
+  <si>
+    <t>Mcdonald And Heard</t>
+  </si>
+  <si>
+    <t>M5852</t>
+  </si>
+  <si>
+    <t>Mediterranean and Black Sea</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>Middle Agulhas</t>
+  </si>
+  <si>
+    <t>M4721</t>
+  </si>
+  <si>
+    <t>Morocco Coastal</t>
+  </si>
+  <si>
+    <t>M3411</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>M518</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>M4112</t>
+  </si>
+  <si>
+    <t>North Of Azores</t>
+  </si>
+  <si>
+    <t>M27XII</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>M27IV</t>
+  </si>
+  <si>
+    <t>Northeast Atlantic South</t>
+  </si>
+  <si>
+    <t>M27Xb</t>
+  </si>
+  <si>
+    <t>Northeast Greenland</t>
+  </si>
+  <si>
+    <t>M27XIVa</t>
+  </si>
+  <si>
+    <t>Northern (Atlantic)</t>
+  </si>
+  <si>
+    <t>M411</t>
+  </si>
+  <si>
+    <t>Northern (Indian)</t>
+  </si>
+  <si>
+    <t>M572</t>
+  </si>
+  <si>
+    <t>Northern (Pacific)</t>
+  </si>
+  <si>
+    <t>M871</t>
+  </si>
+  <si>
+    <t>Northern Coastal (Atlantic)</t>
+  </si>
+  <si>
+    <t>M341</t>
+  </si>
+  <si>
+    <t>Northern Coastal (Pacific)</t>
+  </si>
+  <si>
+    <t>M8711</t>
+  </si>
+  <si>
+    <t>Northern Intermediate</t>
+  </si>
+  <si>
+    <t>M8712</t>
+  </si>
+  <si>
+    <t>Northern North Sea</t>
+  </si>
+  <si>
+    <t>M27IVa</t>
+  </si>
+  <si>
+    <t>Northern Oceanic (Atlantic)</t>
+  </si>
+  <si>
+    <t>M342</t>
+  </si>
+  <si>
+    <t>Northern Oceanic (Pacific)</t>
+  </si>
+  <si>
+    <t>M8714</t>
+  </si>
+  <si>
+    <t>Northern Patagonian</t>
+  </si>
+  <si>
+    <t>M4131</t>
+  </si>
+  <si>
+    <t>Northern Reykjanes Ridge</t>
+  </si>
+  <si>
+    <t>M27Va1</t>
+  </si>
+  <si>
+    <t>Northern Subdivision</t>
+  </si>
+  <si>
+    <t>M214Vn</t>
+  </si>
+  <si>
+    <t>Northwest Australia</t>
+  </si>
+  <si>
+    <t>M5752</t>
+  </si>
+  <si>
+    <t>Northwest Coast Of Scotland And North Ireland</t>
+  </si>
+  <si>
+    <t>M27VIa</t>
   </si>
   <si>
     <t>Northwestern Subdivision</t>
@@ -158,46 +1652,466 @@
     <t>M213Pn</t>
   </si>
   <si>
+    <t>Norwegian Sea</t>
+  </si>
+  <si>
+    <t>M27IIa</t>
+  </si>
+  <si>
+    <t>Norwegian Sea - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27IIa1</t>
+  </si>
+  <si>
+    <t>Norwegian Sea Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27IIa2</t>
+  </si>
+  <si>
+    <t>Norwegian Sea, Spitzbergen, And Bear Island</t>
+  </si>
+  <si>
+    <t>M27II</t>
+  </si>
+  <si>
+    <t>Nothern Oceanic</t>
+  </si>
+  <si>
+    <t>M4114</t>
+  </si>
+  <si>
+    <t>Ob And Lena Banks</t>
+  </si>
+  <si>
+    <t>M5844</t>
+  </si>
+  <si>
+    <t>Ob Bank</t>
+  </si>
+  <si>
+    <t>M5844a</t>
+  </si>
+  <si>
+    <t>Oceanic (M51.7)</t>
+  </si>
+  <si>
+    <t>M517</t>
+  </si>
+  <si>
+    <t>Oceanic (M57.4)</t>
+  </si>
+  <si>
+    <t>M574</t>
+  </si>
+  <si>
+    <t>Orange River</t>
+  </si>
+  <si>
+    <t>M4715</t>
+  </si>
+  <si>
+    <t>Pacifc Ocean</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>Pacific, Antarctic</t>
+  </si>
+  <si>
+    <t>M88</t>
+  </si>
+  <si>
+    <t>Pacific, Eastern Central</t>
+  </si>
+  <si>
+    <t>M77</t>
+  </si>
+  <si>
+    <t>Pacific, Northeast</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>Pacific, Northwest</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>Pacific, Southeast</t>
+  </si>
+  <si>
+    <t>M87</t>
+  </si>
+  <si>
+    <t>Pacific, Southwest</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>Pacific, Western Central</t>
+  </si>
+  <si>
+    <t>M71</t>
+  </si>
+  <si>
+    <t>Pascua</t>
+  </si>
+  <si>
+    <t>M8725</t>
+  </si>
+  <si>
+    <t>Peninsular</t>
+  </si>
+  <si>
+    <t>M481</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>M4123</t>
+  </si>
+  <si>
+    <t>Porcupine Bank</t>
+  </si>
+  <si>
+    <t>M27VIIc</t>
+  </si>
+  <si>
+    <t>Porcupine Bank - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27VIIc1</t>
+  </si>
+  <si>
+    <t>Porcupine Bank Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27VIIc2</t>
+  </si>
+  <si>
+    <t>Portuguese Waters</t>
+  </si>
+  <si>
+    <t>M27IX</t>
+  </si>
+  <si>
+    <t>Portuguese Waters - East</t>
+  </si>
+  <si>
+    <t>M27IXa</t>
+  </si>
+  <si>
+    <t>Portuguese Waters - West</t>
+  </si>
+  <si>
+    <t>M27IXb</t>
+  </si>
+  <si>
+    <t>Portuguese Waters - West - Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27IXb1</t>
+  </si>
+  <si>
+    <t>Portuguese Waters - West - Non-Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27IXb2</t>
+  </si>
+  <si>
+    <t>Prydz Bay</t>
+  </si>
+  <si>
+    <t>M5842</t>
+  </si>
+  <si>
+    <t>Red Sea</t>
+  </si>
+  <si>
+    <t>M511</t>
+  </si>
+  <si>
+    <t>Rio Grande</t>
+  </si>
+  <si>
+    <t>M4122</t>
+  </si>
+  <si>
+    <t>Rockall</t>
+  </si>
+  <si>
+    <t>M27VIb</t>
+  </si>
+  <si>
+    <t>Rockall - Part Of Neafc Area</t>
+  </si>
+  <si>
+    <t>M27VIb1</t>
+  </si>
+  <si>
+    <t>Rockall Non-Neafc Area</t>
+  </si>
+  <si>
+    <t>M27VIb2</t>
+  </si>
+  <si>
+    <t>Rockall, Nw Coast Of Scotland And North Ireland</t>
+  </si>
+  <si>
+    <t>M27VI</t>
+  </si>
+  <si>
+    <t>Sahara Coastal</t>
+  </si>
+  <si>
+    <t>M3413</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>M4113</t>
+  </si>
+  <si>
+    <t>San Felix</t>
+  </si>
+  <si>
+    <t>M8723</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>M4121</t>
+  </si>
+  <si>
+    <t>Sardinia</t>
+  </si>
+  <si>
+    <t>M3713</t>
+  </si>
+  <si>
+    <t>Seafo (47.A.0)</t>
+  </si>
+  <si>
+    <t>M47A0</t>
+  </si>
+  <si>
+    <t>Seafo (47.A.1)</t>
+  </si>
+  <si>
+    <t>M47A1</t>
+  </si>
+  <si>
+    <t>Seafo (47.B.0)</t>
+  </si>
+  <si>
+    <t>M47B0</t>
+  </si>
+  <si>
+    <t>Seafo (47.B.1)</t>
+  </si>
+  <si>
+    <t>M47B1</t>
+  </si>
+  <si>
+    <t>Seafo (47.C.0)</t>
+  </si>
+  <si>
+    <t>M47C0</t>
+  </si>
+  <si>
+    <t>Seafo (47.C.1)</t>
+  </si>
+  <si>
+    <t>M47C1</t>
+  </si>
+  <si>
+    <t>Seafo (47.D.0)</t>
+  </si>
+  <si>
+    <t>M47D0</t>
+  </si>
+  <si>
+    <t>Seafo (47.D.1)</t>
+  </si>
+  <si>
+    <t>M47D1</t>
+  </si>
+  <si>
+    <t>Sherbro</t>
+  </si>
+  <si>
+    <t>M3433</t>
+  </si>
+  <si>
+    <t>Skagerrak And Kattegat</t>
+  </si>
+  <si>
+    <t>M27IIIa</t>
+  </si>
+  <si>
+    <t>Skagerrak, Kattegat, Sound, Belt S., And Baltic S.</t>
+  </si>
+  <si>
+    <t>M27III</t>
+  </si>
+  <si>
+    <t>Somalia, Kenya And Tanzania</t>
+  </si>
+  <si>
+    <t>M515</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>M27III23</t>
+  </si>
+  <si>
+    <t>Sound And Belt Sea Or The Transition Area</t>
+  </si>
+  <si>
+    <t>M27IIIb c</t>
+  </si>
+  <si>
+    <t>South Georgia</t>
+  </si>
+  <si>
+    <t>M483</t>
+  </si>
+  <si>
+    <t>South Orkney</t>
+  </si>
+  <si>
+    <t>M482</t>
+  </si>
+  <si>
+    <t>South Sandwich</t>
+  </si>
+  <si>
+    <t>M484</t>
+  </si>
+  <si>
+    <t>Southeast Greenland</t>
+  </si>
+  <si>
+    <t>M27XIVb</t>
+  </si>
+  <si>
+    <t>Southeast Greenland - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIVb1</t>
+  </si>
+  <si>
+    <t>Southeast Greenland Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIVb2</t>
+  </si>
+  <si>
     <t>Southeastern Subdivision</t>
   </si>
   <si>
     <t>M213Ps</t>
   </si>
   <si>
-    <t>Fao Sub Area 21.4</t>
-  </si>
-  <si>
-    <t>M214</t>
-  </si>
-  <si>
-    <t>Fao Division 21.4.R</t>
-  </si>
-  <si>
-    <t>M214R</t>
-  </si>
-  <si>
-    <t>Fao Division 21.4.S</t>
-  </si>
-  <si>
-    <t>M214S</t>
-  </si>
-  <si>
-    <t>Fao Division 21.4.T</t>
-  </si>
-  <si>
-    <t>M214T</t>
-  </si>
-  <si>
-    <t>Fao Division 21.4.V</t>
-  </si>
-  <si>
-    <t>M214V</t>
-  </si>
-  <si>
-    <t>Northern Subdivision</t>
-  </si>
-  <si>
-    <t>M214Vn</t>
+    <t>Southern (Atlantic)</t>
+  </si>
+  <si>
+    <t>M413</t>
+  </si>
+  <si>
+    <t>Southern (Pacific)</t>
+  </si>
+  <si>
+    <t>M873</t>
+  </si>
+  <si>
+    <t>Southern Australia</t>
+  </si>
+  <si>
+    <t>M576</t>
+  </si>
+  <si>
+    <t>Southern Central Baltic - East</t>
+  </si>
+  <si>
+    <t>M27IIId26</t>
+  </si>
+  <si>
+    <t>Southern Central Baltic - West</t>
+  </si>
+  <si>
+    <t>M27IIId25</t>
+  </si>
+  <si>
+    <t>Southern Coastal (Atlantic)</t>
+  </si>
+  <si>
+    <t>M343</t>
+  </si>
+  <si>
+    <t>Southern Coastal (Pacific)</t>
+  </si>
+  <si>
+    <t>M8731</t>
+  </si>
+  <si>
+    <t>Southern Gulf Of Guinea</t>
+  </si>
+  <si>
+    <t>M3436</t>
+  </si>
+  <si>
+    <t>Southern Intermediate</t>
+  </si>
+  <si>
+    <t>M8732</t>
+  </si>
+  <si>
+    <t>Southern Mid-Atlantic Ridge</t>
+  </si>
+  <si>
+    <t>M27XIIa</t>
+  </si>
+  <si>
+    <t>Southern North Sea</t>
+  </si>
+  <si>
+    <t>M27IVc</t>
+  </si>
+  <si>
+    <t>Southern Oceanic</t>
+  </si>
+  <si>
+    <t>M4133</t>
+  </si>
+  <si>
+    <t>Southern Oceanic (Atlantic)</t>
+  </si>
+  <si>
+    <t>M344</t>
+  </si>
+  <si>
+    <t>Southern Oceanic (Pacific)</t>
+  </si>
+  <si>
+    <t>M8733</t>
+  </si>
+  <si>
+    <t>Southern Patagonian</t>
+  </si>
+  <si>
+    <t>M4132</t>
   </si>
   <si>
     <t>Southern Subdivision</t>
@@ -206,46 +2120,100 @@
     <t>M214Vs</t>
   </si>
   <si>
-    <t>Fao Division 21.4.W</t>
-  </si>
-  <si>
-    <t>M214W</t>
-  </si>
-  <si>
-    <t>Fao Division 21.4.X</t>
-  </si>
-  <si>
-    <t>M214X</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 21.5</t>
-  </si>
-  <si>
-    <t>M215</t>
-  </si>
-  <si>
-    <t>Fao Division 21.5.Y</t>
-  </si>
-  <si>
-    <t>M215Y</t>
-  </si>
-  <si>
-    <t>Fao Division 21.5.Z</t>
-  </si>
-  <si>
-    <t>M215Z</t>
-  </si>
-  <si>
-    <t>Canadian Waters</t>
-  </si>
-  <si>
-    <t>M215Zc</t>
-  </si>
-  <si>
-    <t>Eastern Subdivision</t>
-  </si>
-  <si>
-    <t>M215Ze</t>
+    <t>Southwest Australia</t>
+  </si>
+  <si>
+    <t>M5751</t>
+  </si>
+  <si>
+    <t>Southwest Gulf Of Guinea</t>
+  </si>
+  <si>
+    <t>M3441</t>
+  </si>
+  <si>
+    <t>Southwest Oceanic</t>
+  </si>
+  <si>
+    <t>M3442</t>
+  </si>
+  <si>
+    <t>Southwest Of Ireland - East</t>
+  </si>
+  <si>
+    <t>M27VIIj</t>
+  </si>
+  <si>
+    <t>Southwest Of Ireland - West</t>
+  </si>
+  <si>
+    <t>M27VIIk</t>
+  </si>
+  <si>
+    <t>Spitzbergen And Bear Island</t>
+  </si>
+  <si>
+    <t>M27IIb</t>
+  </si>
+  <si>
+    <t>Spitzbergen And Bear Island - Neafc Reg. Area (27.II.b.1)</t>
+  </si>
+  <si>
+    <t>M27IIb1</t>
+  </si>
+  <si>
+    <t>Spitzbergen And Bear Island - Neafc Reg. Area (27.II.b.2)</t>
+  </si>
+  <si>
+    <t>M27IIb2</t>
+  </si>
+  <si>
+    <t>Subdivision Xiia1 - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIIa1</t>
+  </si>
+  <si>
+    <t>Subdivision Xiia2 - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIIa2</t>
+  </si>
+  <si>
+    <t>Subdivision Xiia3 Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIIa3</t>
+  </si>
+  <si>
+    <t>Subdivision Xiia4 Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27XIIa4</t>
+  </si>
+  <si>
+    <t>Sw Of Ireland - East - Neafc Regulatory</t>
+  </si>
+  <si>
+    <t>M27VIIj1</t>
+  </si>
+  <si>
+    <t>Sw Of Ireland - East - Non-Neafc Regulatory</t>
+  </si>
+  <si>
+    <t>M27VIIj2</t>
+  </si>
+  <si>
+    <t>Sw Of Ireland - West - Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27VIIk1</t>
+  </si>
+  <si>
+    <t>Sw Of Ireland - West - Non-Neafc Regulatory Area</t>
+  </si>
+  <si>
+    <t>M27VIIk2</t>
   </si>
   <si>
     <t>United States Waters</t>
@@ -254,2068 +2222,100 @@
     <t>M215Zu</t>
   </si>
   <si>
+    <t>Unknown Area</t>
+  </si>
+  <si>
+    <t>M99</t>
+  </si>
+  <si>
+    <t>Weddel Sea</t>
+  </si>
+  <si>
+    <t>M485</t>
+  </si>
+  <si>
+    <t>West Of Bay Of Biscay</t>
+  </si>
+  <si>
+    <t>M27VIIIe</t>
+  </si>
+  <si>
+    <t>West Of Bay Of Biscay - Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27VIIIe1</t>
+  </si>
+  <si>
+    <t>West Of Bay Of Biscay - Non-Neafc Reg. Area</t>
+  </si>
+  <si>
+    <t>M27VIIIe2</t>
+  </si>
+  <si>
+    <t>West Of Gotland</t>
+  </si>
+  <si>
+    <t>M27IIId27</t>
+  </si>
+  <si>
+    <t>West Of Ireland</t>
+  </si>
+  <si>
+    <t>M27VIIb</t>
+  </si>
+  <si>
+    <t>Western Arabian Sea</t>
+  </si>
+  <si>
+    <t>M513</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>M575</t>
+  </si>
+  <si>
+    <t>Western English Channel</t>
+  </si>
+  <si>
+    <t>M27VIIe</t>
+  </si>
+  <si>
+    <t>Western Gulf Of Guinea</t>
+  </si>
+  <si>
+    <t>M3434</t>
+  </si>
+  <si>
+    <t>Western Hatton Bank</t>
+  </si>
+  <si>
+    <t>M27XIIb</t>
+  </si>
+  <si>
+    <t>Western Mediterranean</t>
+  </si>
+  <si>
+    <t>M371</t>
+  </si>
+  <si>
+    <t>Western Ross Sea</t>
+  </si>
+  <si>
+    <t>M882</t>
+  </si>
+  <si>
     <t>Western Subdivision</t>
   </si>
   <si>
     <t>M215Zw</t>
   </si>
   <si>
-    <t>Fao Sub Area 21.6</t>
-  </si>
-  <si>
-    <t>M216</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.A</t>
-  </si>
-  <si>
-    <t>M216A</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.B</t>
-  </si>
-  <si>
-    <t>M216B</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.C</t>
-  </si>
-  <si>
-    <t>M216C</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.D</t>
-  </si>
-  <si>
-    <t>M216D</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.E</t>
-  </si>
-  <si>
-    <t>M216E</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.F</t>
-  </si>
-  <si>
-    <t>M216F</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.G</t>
-  </si>
-  <si>
-    <t>M216G</t>
-  </si>
-  <si>
-    <t>Fao Division 21.6.H</t>
-  </si>
-  <si>
-    <t>M216H</t>
-  </si>
-  <si>
-    <t>Barents Sea</t>
-  </si>
-  <si>
-    <t>M27I</t>
-  </si>
-  <si>
-    <t>Norwegian Sea, Spitzbergen, And Bear Island</t>
-  </si>
-  <si>
-    <t>M27II</t>
-  </si>
-  <si>
-    <t>Skagerrak, Kattegat, Sound, Belt S., And Baltic S.</t>
-  </si>
-  <si>
-    <t>M27III</t>
-  </si>
-  <si>
-    <t>Belt Sea</t>
-  </si>
-  <si>
-    <t>M27III22</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>M27III23</t>
-  </si>
-  <si>
-    <t>Skagerrak And Kattegat</t>
-  </si>
-  <si>
-    <t>M27IIIa</t>
-  </si>
-  <si>
-    <t>Sound And Belt Sea Or The Transition Area</t>
-  </si>
-  <si>
-    <t>M27IIIb c</t>
-  </si>
-  <si>
-    <t>Fao Division 27.Iii.D</t>
-  </si>
-  <si>
-    <t>M27IIId</t>
-  </si>
-  <si>
-    <t>Baltic West Of Bornholm</t>
-  </si>
-  <si>
-    <t>M27IIId24</t>
-  </si>
-  <si>
-    <t>Southern Central Baltic - West</t>
-  </si>
-  <si>
-    <t>M27IIId25</t>
-  </si>
-  <si>
-    <t>Southern Central Baltic - East</t>
-  </si>
-  <si>
-    <t>M27IIId26</t>
-  </si>
-  <si>
-    <t>West Of Gotland</t>
-  </si>
-  <si>
-    <t>M27IIId27</t>
-  </si>
-  <si>
-    <t>East Of Gotland Or Gulf Of Riga</t>
-  </si>
-  <si>
-    <t>M27IIId28</t>
-  </si>
-  <si>
-    <t>Gulf Of Riga</t>
-  </si>
-  <si>
-    <t>M27IIId281</t>
-  </si>
-  <si>
-    <t>East Of Gotland (Open Sea)</t>
-  </si>
-  <si>
-    <t>M27IIId282</t>
-  </si>
-  <si>
-    <t>Archipelago Sea</t>
-  </si>
-  <si>
-    <t>M27IIId29</t>
-  </si>
-  <si>
-    <t>Bothnian Sea</t>
-  </si>
-  <si>
-    <t>M27IIId30</t>
-  </si>
-  <si>
-    <t>Bothnian Bay</t>
-  </si>
-  <si>
-    <t>M27IIId31</t>
-  </si>
-  <si>
-    <t>Gulf Of Finland</t>
-  </si>
-  <si>
-    <t>M27IIId32</t>
-  </si>
-  <si>
-    <t>Norwegian Sea</t>
-  </si>
-  <si>
-    <t>M27IIa</t>
-  </si>
-  <si>
-    <t>Norwegian Sea - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27IIa1</t>
-  </si>
-  <si>
-    <t>Norwegian Sea Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27IIa2</t>
-  </si>
-  <si>
-    <t>Spitzbergen And Bear Island</t>
-  </si>
-  <si>
-    <t>M27IIb</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>M27IV</t>
-  </si>
-  <si>
-    <t>Northern North Sea</t>
-  </si>
-  <si>
-    <t>M27IVa</t>
-  </si>
-  <si>
-    <t>Central North Sea</t>
-  </si>
-  <si>
-    <t>M27IVb</t>
-  </si>
-  <si>
-    <t>Southern North Sea</t>
-  </si>
-  <si>
-    <t>M27IVc</t>
-  </si>
-  <si>
-    <t>Portuguese Waters</t>
-  </si>
-  <si>
-    <t>M27IX</t>
-  </si>
-  <si>
-    <t>Portuguese Waters - East</t>
-  </si>
-  <si>
-    <t>M27IXa</t>
-  </si>
-  <si>
-    <t>Portuguese Waters - West</t>
-  </si>
-  <si>
-    <t>M27IXb</t>
-  </si>
-  <si>
-    <t>Portuguese Waters - West - Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27IXb1</t>
-  </si>
-  <si>
-    <t>Portuguese Waters - West - Non-Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27IXb2</t>
-  </si>
-  <si>
-    <t>Barents Sea - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27Ia</t>
-  </si>
-  <si>
-    <t>Barents Sea Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27Ib</t>
-  </si>
-  <si>
-    <t>Iceland And Faroes Grounds</t>
-  </si>
-  <si>
-    <t>M27V</t>
-  </si>
-  <si>
-    <t>Rockall, Nw Coast Of Scotland And North Ireland</t>
-  </si>
-  <si>
-    <t>M27VI</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 27.Vii</t>
-  </si>
-  <si>
-    <t>M27VII</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay</t>
-  </si>
-  <si>
-    <t>M27VIII</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - North</t>
-  </si>
-  <si>
-    <t>M27VIIIa</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - Central</t>
-  </si>
-  <si>
-    <t>M27VIIIb</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - South</t>
-  </si>
-  <si>
-    <t>M27VIIIc</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - Offshore</t>
-  </si>
-  <si>
-    <t>M27VIIId</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - Offshore - Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27VIIId1</t>
-  </si>
-  <si>
-    <t>Bay Of Biscay - Offshore - Non-Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27VIIId2</t>
-  </si>
-  <si>
-    <t>West Of Bay Of Biscay</t>
-  </si>
-  <si>
-    <t>M27VIIIe</t>
-  </si>
-  <si>
-    <t>West Of Bay Of Biscay - Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27VIIIe1</t>
-  </si>
-  <si>
-    <t>West Of Bay Of Biscay - Non-Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27VIIIe2</t>
-  </si>
-  <si>
-    <t>Irish Sea</t>
-  </si>
-  <si>
-    <t>M27VIIa</t>
-  </si>
-  <si>
-    <t>West Of Ireland</t>
-  </si>
-  <si>
-    <t>M27VIIb</t>
-  </si>
-  <si>
-    <t>Porcupine Bank</t>
-  </si>
-  <si>
-    <t>M27VIIc</t>
-  </si>
-  <si>
-    <t>Porcupine Bank - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27VIIc1</t>
-  </si>
-  <si>
-    <t>Porcupine Bank Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27VIIc2</t>
-  </si>
-  <si>
-    <t>Eastern English Channel</t>
-  </si>
-  <si>
-    <t>M27VIId</t>
-  </si>
-  <si>
-    <t>Western English Channel</t>
-  </si>
-  <si>
-    <t>M27VIIe</t>
-  </si>
-  <si>
-    <t>Bristol Channel</t>
-  </si>
-  <si>
-    <t>M27VIIf</t>
-  </si>
-  <si>
-    <t>Celtic Sea North</t>
-  </si>
-  <si>
-    <t>M27VIIg</t>
-  </si>
-  <si>
-    <t>Celtic Sea South</t>
-  </si>
-  <si>
-    <t>M27VIIh</t>
-  </si>
-  <si>
-    <t>Southwest Of Ireland - East</t>
-  </si>
-  <si>
-    <t>M27VIIj</t>
-  </si>
-  <si>
-    <t>Sw Of Ireland - East - Neafc Regulatory</t>
-  </si>
-  <si>
-    <t>M27VIIj1</t>
-  </si>
-  <si>
-    <t>Sw Of Ireland - East - Non-Neafc Regulatory</t>
-  </si>
-  <si>
-    <t>M27VIIj2</t>
-  </si>
-  <si>
-    <t>Southwest Of Ireland - West</t>
-  </si>
-  <si>
-    <t>M27VIIk</t>
-  </si>
-  <si>
-    <t>Sw Of Ireland - West - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27VIIk1</t>
-  </si>
-  <si>
-    <t>Sw Of Ireland - West - Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27VIIk2</t>
-  </si>
-  <si>
-    <t>Northwest Coast Of Scotland And North Ireland</t>
-  </si>
-  <si>
-    <t>M27VIa</t>
-  </si>
-  <si>
-    <t>Rockall</t>
-  </si>
-  <si>
-    <t>M27VIb</t>
-  </si>
-  <si>
-    <t>Rockall - Part Of Neafc Area</t>
-  </si>
-  <si>
-    <t>M27VIb1</t>
-  </si>
-  <si>
-    <t>Rockall Non-Neafc Area</t>
-  </si>
-  <si>
-    <t>M27VIb2</t>
-  </si>
-  <si>
-    <t>Iceland Grounds</t>
-  </si>
-  <si>
-    <t>M27Va</t>
-  </si>
-  <si>
-    <t>Northern Reykjanes Ridge</t>
-  </si>
-  <si>
-    <t>M27Va1</t>
-  </si>
-  <si>
-    <t>Icelandic Shelf</t>
-  </si>
-  <si>
-    <t>M27Va2</t>
-  </si>
-  <si>
-    <t>Faroes Grounds</t>
-  </si>
-  <si>
-    <t>M27Vb</t>
-  </si>
-  <si>
-    <t>Faroe Plateau</t>
-  </si>
-  <si>
-    <t>M27Vb1</t>
-  </si>
-  <si>
-    <t>Faeroe Plateau - Part Of Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27Vb1a</t>
-  </si>
-  <si>
-    <t>Faeroe Plateau - Part Of Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27Vb1b</t>
-  </si>
-  <si>
-    <t>Faroe Bank</t>
-  </si>
-  <si>
-    <t>M27Vb2</t>
-  </si>
-  <si>
-    <t>Azores Grounds</t>
-  </si>
-  <si>
-    <t>M27X</t>
-  </si>
-  <si>
-    <t>North Of Azores</t>
-  </si>
-  <si>
-    <t>M27XII</t>
-  </si>
-  <si>
-    <t>Southern Mid-Atlantic Ridge</t>
-  </si>
-  <si>
-    <t>M27XIIa</t>
-  </si>
-  <si>
-    <t>Subdivision Xiia1 - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIIa1</t>
-  </si>
-  <si>
-    <t>Subdivision Xiia2 - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIIa2</t>
-  </si>
-  <si>
-    <t>Subdivision Xiia3 Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIIa3</t>
-  </si>
-  <si>
-    <t>Subdivision Xiia4 Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIIa4</t>
-  </si>
-  <si>
-    <t>Western Hatton Bank</t>
-  </si>
-  <si>
-    <t>M27XIIb</t>
-  </si>
-  <si>
-    <t>Central Northeast Atlantic - South</t>
-  </si>
-  <si>
-    <t>M27XIIc</t>
-  </si>
-  <si>
-    <t>East Greenland</t>
-  </si>
-  <si>
-    <t>M27XIV</t>
-  </si>
-  <si>
-    <t>Northeast Greenland</t>
-  </si>
-  <si>
-    <t>M27XIVa</t>
-  </si>
-  <si>
-    <t>Southeast Greenland</t>
-  </si>
-  <si>
-    <t>M27XIVb</t>
-  </si>
-  <si>
-    <t>Southeast Greenland - Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIVb1</t>
-  </si>
-  <si>
-    <t>Southeast Greenland Non-Neafc Regulatory Area</t>
-  </si>
-  <si>
-    <t>M27XIVb2</t>
-  </si>
-  <si>
-    <t>Azores Grounds - Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27Xa1</t>
-  </si>
-  <si>
-    <t>Azores Grounds - Non-Neafc Reg. Area</t>
-  </si>
-  <si>
-    <t>M27Xa2</t>
-  </si>
-  <si>
-    <t>Northeast Atlantic South</t>
-  </si>
-  <si>
-    <t>M27Xb</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.1</t>
-  </si>
-  <si>
-    <t>M311</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.10</t>
-  </si>
-  <si>
-    <t>M3110</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.10.1</t>
-  </si>
-  <si>
-    <t>M31101</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.10.2</t>
-  </si>
-  <si>
-    <t>M31102</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.10.3</t>
-  </si>
-  <si>
-    <t>M31103</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.10.4</t>
-  </si>
-  <si>
-    <t>M31104</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.11</t>
-  </si>
-  <si>
-    <t>M3111</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.2</t>
-  </si>
-  <si>
-    <t>M312</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.1</t>
-  </si>
-  <si>
-    <t>M3121</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.2</t>
-  </si>
-  <si>
-    <t>M3122</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.3</t>
-  </si>
-  <si>
-    <t>M3123</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.4</t>
-  </si>
-  <si>
-    <t>M3124</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.5</t>
-  </si>
-  <si>
-    <t>M3125</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.2.6</t>
-  </si>
-  <si>
-    <t>M3126</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.3</t>
-  </si>
-  <si>
-    <t>M313</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.3.1</t>
-  </si>
-  <si>
-    <t>M3131</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.3.2</t>
-  </si>
-  <si>
-    <t>M3132</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.3.3</t>
-  </si>
-  <si>
-    <t>M3133</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.4</t>
-  </si>
-  <si>
-    <t>M314</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.4.1</t>
-  </si>
-  <si>
-    <t>M3141</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.4.2</t>
-  </si>
-  <si>
-    <t>M3142</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.5</t>
-  </si>
-  <si>
-    <t>M315</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.6</t>
-  </si>
-  <si>
-    <t>M316</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.7</t>
-  </si>
-  <si>
-    <t>M317</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.7.1</t>
-  </si>
-  <si>
-    <t>M3171</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.7.2</t>
-  </si>
-  <si>
-    <t>M3172</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.7.3</t>
-  </si>
-  <si>
-    <t>M3173</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.8</t>
-  </si>
-  <si>
-    <t>M318</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.8.1</t>
-  </si>
-  <si>
-    <t>M3181</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _31.8.2</t>
-  </si>
-  <si>
-    <t>M3182</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _31.9</t>
-  </si>
-  <si>
-    <t>M319</t>
-  </si>
-  <si>
-    <t>Morocco Coastal</t>
-  </si>
-  <si>
-    <t>M3411</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.1.11</t>
-  </si>
-  <si>
-    <t>M34111</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.1.12</t>
-  </si>
-  <si>
-    <t>M34112</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.1.13</t>
-  </si>
-  <si>
-    <t>M34113</t>
-  </si>
-  <si>
-    <t>Canaries/Madeira Insular</t>
-  </si>
-  <si>
-    <t>M3412</t>
-  </si>
-  <si>
-    <t>Sahara Coastal</t>
-  </si>
-  <si>
-    <t>M3413</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.1.31</t>
-  </si>
-  <si>
-    <t>M34131</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.1.32</t>
-  </si>
-  <si>
-    <t>M34132</t>
-  </si>
-  <si>
-    <t>Cape Verde Coastal</t>
-  </si>
-  <si>
-    <t>M3431</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.3.11</t>
-  </si>
-  <si>
-    <t>M34311</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.3.12</t>
-  </si>
-  <si>
-    <t>M34312</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 34.3.13</t>
-  </si>
-  <si>
-    <t>M34313</t>
-  </si>
-  <si>
-    <t>Cape Verde Insular</t>
-  </si>
-  <si>
-    <t>M3432</t>
-  </si>
-  <si>
-    <t>Sherbro</t>
-  </si>
-  <si>
-    <t>M3433</t>
-  </si>
-  <si>
-    <t>Western Gulf Of Guinea</t>
-  </si>
-  <si>
-    <t>M3434</t>
-  </si>
-  <si>
-    <t>Central Gulf Of Guinea</t>
-  </si>
-  <si>
-    <t>M3435</t>
-  </si>
-  <si>
-    <t>Southern Gulf Of Guinea</t>
-  </si>
-  <si>
-    <t>M3436</t>
-  </si>
-  <si>
-    <t>Southwest Gulf Of Guinea</t>
-  </si>
-  <si>
-    <t>M3441</t>
-  </si>
-  <si>
-    <t>Southwest Oceanic</t>
-  </si>
-  <si>
-    <t>M3442</t>
-  </si>
-  <si>
-    <t>Western Mediterranean</t>
-  </si>
-  <si>
-    <t>M371</t>
-  </si>
-  <si>
-    <t>Balearic</t>
-  </si>
-  <si>
-    <t>M3711</t>
-  </si>
-  <si>
-    <t>Gulf Of Lions</t>
-  </si>
-  <si>
-    <t>M3712</t>
-  </si>
-  <si>
-    <t>Sardinia</t>
-  </si>
-  <si>
-    <t>M3713</t>
-  </si>
-  <si>
-    <t>Central Mediterranean</t>
-  </si>
-  <si>
-    <t>M372</t>
-  </si>
-  <si>
-    <t>Adriatic</t>
-  </si>
-  <si>
-    <t>M3721</t>
-  </si>
-  <si>
-    <t>Ionian</t>
-  </si>
-  <si>
-    <t>M3722</t>
-  </si>
-  <si>
-    <t>Eastern Mediterranean</t>
-  </si>
-  <si>
-    <t>M373</t>
-  </si>
-  <si>
-    <t>Aegean</t>
-  </si>
-  <si>
-    <t>M3731</t>
-  </si>
-  <si>
-    <t>Levant</t>
-  </si>
-  <si>
-    <t>M3732</t>
-  </si>
-  <si>
-    <t>Black Sea</t>
-  </si>
-  <si>
-    <t>M374</t>
-  </si>
-  <si>
-    <t>Marmara Sea</t>
-  </si>
-  <si>
-    <t>M3741</t>
-  </si>
-  <si>
-    <t>Azov Sea</t>
-  </si>
-  <si>
-    <t>M3743</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>M4111</t>
-  </si>
-  <si>
-    <t>Natal</t>
-  </si>
-  <si>
-    <t>M4112</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>M4113</t>
-  </si>
-  <si>
-    <t>Nothern Oceanic</t>
-  </si>
-  <si>
-    <t>M4114</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>M4121</t>
-  </si>
-  <si>
-    <t>Rio Grande</t>
-  </si>
-  <si>
-    <t>M4122</t>
-  </si>
-  <si>
-    <t>Platense</t>
-  </si>
-  <si>
-    <t>M4123</t>
-  </si>
-  <si>
-    <t>Northern Patagonian</t>
-  </si>
-  <si>
-    <t>M4131</t>
-  </si>
-  <si>
-    <t>Southern Patagonian</t>
-  </si>
-  <si>
-    <t>M4132</t>
-  </si>
-  <si>
-    <t>Southern Oceanic</t>
-  </si>
-  <si>
-    <t>M4133</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.1</t>
-  </si>
-  <si>
-    <t>M471</t>
-  </si>
-  <si>
-    <t>Cape Palmeirinhas</t>
-  </si>
-  <si>
-    <t>M4711</t>
-  </si>
-  <si>
-    <t>Cape Salinas</t>
-  </si>
-  <si>
-    <t>M4712</t>
-  </si>
-  <si>
-    <t>Cunene</t>
-  </si>
-  <si>
-    <t>M4713</t>
-  </si>
-  <si>
-    <t>Cape Cross</t>
-  </si>
-  <si>
-    <t>M4714</t>
-  </si>
-  <si>
-    <t>Orange River</t>
-  </si>
-  <si>
-    <t>M4715</t>
-  </si>
-  <si>
-    <t>Cape Of Good Hope</t>
-  </si>
-  <si>
-    <t>M4716</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.2</t>
-  </si>
-  <si>
-    <t>M472</t>
-  </si>
-  <si>
-    <t>Middle Agulhas</t>
-  </si>
-  <si>
-    <t>M4721</t>
-  </si>
-  <si>
-    <t>Eastern Agulhas</t>
-  </si>
-  <si>
-    <t>M4722</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.A</t>
-  </si>
-  <si>
-    <t>M47A</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.B</t>
-  </si>
-  <si>
-    <t>M47B</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.C</t>
-  </si>
-  <si>
-    <t>M47C</t>
-  </si>
-  <si>
-    <t>Fao Sub Area 47.D</t>
-  </si>
-  <si>
-    <t>M47D</t>
-  </si>
-  <si>
-    <t>Peninsular</t>
-  </si>
-  <si>
-    <t>M481</t>
-  </si>
-  <si>
-    <t>South Orkney</t>
-  </si>
-  <si>
-    <t>M482</t>
-  </si>
-  <si>
-    <t>South Georgia</t>
-  </si>
-  <si>
-    <t>M483</t>
-  </si>
-  <si>
-    <t>South Sandwich</t>
-  </si>
-  <si>
-    <t>M484</t>
-  </si>
-  <si>
-    <t>Weddel Sea</t>
-  </si>
-  <si>
-    <t>M485</t>
-  </si>
-  <si>
-    <t>Bouvet</t>
-  </si>
-  <si>
-    <t>M486</t>
-  </si>
-  <si>
-    <t>Red Sea</t>
-  </si>
-  <si>
-    <t>M511</t>
-  </si>
-  <si>
-    <t>Gulf</t>
-  </si>
-  <si>
-    <t>M512</t>
-  </si>
-  <si>
-    <t>Western Arabian Sea</t>
-  </si>
-  <si>
-    <t>M513</t>
-  </si>
-  <si>
-    <t>Eastern Arabian Sea, Laccadives</t>
-  </si>
-  <si>
-    <t>M514</t>
-  </si>
-  <si>
-    <t>Somalia, Kenya And Tanzania</t>
-  </si>
-  <si>
-    <t>M515</t>
-  </si>
-  <si>
-    <t>Madagascar And Mozambique Channel</t>
-  </si>
-  <si>
-    <t>M516</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>M518</t>
-  </si>
-  <si>
-    <t>Bay Of Bengal</t>
-  </si>
-  <si>
-    <t>M571</t>
-  </si>
-  <si>
-    <t>Western Australia</t>
-  </si>
-  <si>
-    <t>M575</t>
-  </si>
-  <si>
-    <t>Southwest Australia</t>
-  </si>
-  <si>
-    <t>M5751</t>
-  </si>
-  <si>
-    <t>Northwest Australia</t>
-  </si>
-  <si>
-    <t>M5752</t>
-  </si>
-  <si>
-    <t>Southern Australia</t>
-  </si>
-  <si>
-    <t>M576</t>
-  </si>
-  <si>
-    <t>Enderby-Wilkes</t>
-  </si>
-  <si>
-    <t>M584</t>
-  </si>
-  <si>
     <t>Wilkes Land</t>
   </si>
   <si>
     <t>M5841</t>
-  </si>
-  <si>
-    <t>Prydz Bay</t>
-  </si>
-  <si>
-    <t>M5842</t>
-  </si>
-  <si>
-    <t>Banzare Bank</t>
-  </si>
-  <si>
-    <t>M5843</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 58.4.3.A</t>
-  </si>
-  <si>
-    <t>M5843a</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 58.4.3.B</t>
-  </si>
-  <si>
-    <t>M5843b</t>
-  </si>
-  <si>
-    <t>Ob And Lena Banks</t>
-  </si>
-  <si>
-    <t>M5844</t>
-  </si>
-  <si>
-    <t>Ob Bank</t>
-  </si>
-  <si>
-    <t>M5844a</t>
-  </si>
-  <si>
-    <t>Lena Bank</t>
-  </si>
-  <si>
-    <t>M5844b</t>
-  </si>
-  <si>
-    <t>Kerguelen, Mcdonald</t>
-  </si>
-  <si>
-    <t>M585</t>
-  </si>
-  <si>
-    <t>Kerguelen</t>
-  </si>
-  <si>
-    <t>M5851</t>
-  </si>
-  <si>
-    <t>Mcdonald And Heard</t>
-  </si>
-  <si>
-    <t>M5852</t>
-  </si>
-  <si>
-    <t>Crozet</t>
-  </si>
-  <si>
-    <t>M586</t>
-  </si>
-  <si>
-    <t>Marion-Edward</t>
-  </si>
-  <si>
-    <t>M587</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.1</t>
-  </si>
-  <si>
-    <t>M711</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.2</t>
-  </si>
-  <si>
-    <t>M712</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.3</t>
-  </si>
-  <si>
-    <t>M713</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.4</t>
-  </si>
-  <si>
-    <t>M714</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.5</t>
-  </si>
-  <si>
-    <t>M715</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.6</t>
-  </si>
-  <si>
-    <t>M716</t>
-  </si>
-  <si>
-    <t>Fao Division 71.6.1</t>
-  </si>
-  <si>
-    <t>M7161</t>
-  </si>
-  <si>
-    <t>Fao Division 71.6.2</t>
-  </si>
-  <si>
-    <t>M7162</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.7</t>
-  </si>
-  <si>
-    <t>M717</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _71.8</t>
-  </si>
-  <si>
-    <t>M718</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.1</t>
-  </si>
-  <si>
-    <t>M811</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _81.1.1</t>
-  </si>
-  <si>
-    <t>M8111</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Division  _81.1.2</t>
-  </si>
-  <si>
-    <t>M8112</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.2</t>
-  </si>
-  <si>
-    <t>M812</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.3</t>
-  </si>
-  <si>
-    <t>M813</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.4</t>
-  </si>
-  <si>
-    <t>M814</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.5</t>
-  </si>
-  <si>
-    <t>M815</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.6</t>
-  </si>
-  <si>
-    <t>M816</t>
-  </si>
-  <si>
-    <t>Fao - Proposed Sub Area  _81.7</t>
-  </si>
-  <si>
-    <t>M817</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.11</t>
-  </si>
-  <si>
-    <t>M87111</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.12</t>
-  </si>
-  <si>
-    <t>M87112</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.13</t>
-  </si>
-  <si>
-    <t>M87113</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.14</t>
-  </si>
-  <si>
-    <t>M87114</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.15</t>
-  </si>
-  <si>
-    <t>M87115</t>
-  </si>
-  <si>
-    <t>Northern Intermediate</t>
-  </si>
-  <si>
-    <t>M8712</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.21</t>
-  </si>
-  <si>
-    <t>M87121</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.22</t>
-  </si>
-  <si>
-    <t>M87122</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.23</t>
-  </si>
-  <si>
-    <t>M87123</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.24</t>
-  </si>
-  <si>
-    <t>M87124</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.1.25</t>
-  </si>
-  <si>
-    <t>M87125</t>
-  </si>
-  <si>
-    <t>Galapagos</t>
-  </si>
-  <si>
-    <t>M8713</t>
-  </si>
-  <si>
-    <t>Central Coastal</t>
-  </si>
-  <si>
-    <t>M8721</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.11</t>
-  </si>
-  <si>
-    <t>M87211</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.12</t>
-  </si>
-  <si>
-    <t>M87212</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.13</t>
-  </si>
-  <si>
-    <t>M87213</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.14</t>
-  </si>
-  <si>
-    <t>M87214</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.15</t>
-  </si>
-  <si>
-    <t>M87215</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.16</t>
-  </si>
-  <si>
-    <t>M87216</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.17</t>
-  </si>
-  <si>
-    <t>M87217</t>
-  </si>
-  <si>
-    <t>Central Intermediate</t>
-  </si>
-  <si>
-    <t>M8722</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.21</t>
-  </si>
-  <si>
-    <t>M87221</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.22</t>
-  </si>
-  <si>
-    <t>M87222</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.23</t>
-  </si>
-  <si>
-    <t>M87223</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.24</t>
-  </si>
-  <si>
-    <t>M87224</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.25</t>
-  </si>
-  <si>
-    <t>M87225</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.26</t>
-  </si>
-  <si>
-    <t>M87226</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.2.27</t>
-  </si>
-  <si>
-    <t>M87227</t>
-  </si>
-  <si>
-    <t>San Felix</t>
-  </si>
-  <si>
-    <t>M8723</t>
-  </si>
-  <si>
-    <t>Juan Fernandez</t>
-  </si>
-  <si>
-    <t>M8724</t>
-  </si>
-  <si>
-    <t>Pascua</t>
-  </si>
-  <si>
-    <t>M8725</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.11</t>
-  </si>
-  <si>
-    <t>M87311</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.12</t>
-  </si>
-  <si>
-    <t>M87312</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.13</t>
-  </si>
-  <si>
-    <t>M87313</t>
-  </si>
-  <si>
-    <t>Southern Intermediate</t>
-  </si>
-  <si>
-    <t>M8732</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.21</t>
-  </si>
-  <si>
-    <t>M87321</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.22</t>
-  </si>
-  <si>
-    <t>M87322</t>
-  </si>
-  <si>
-    <t>Fao Sub Division 87.3.23</t>
-  </si>
-  <si>
-    <t>M87323</t>
-  </si>
-  <si>
-    <t>Eastern Ross Sea</t>
-  </si>
-  <si>
-    <t>M881</t>
-  </si>
-  <si>
-    <t>Western Ross Sea</t>
-  </si>
-  <si>
-    <t>M882</t>
-  </si>
-  <si>
-    <t>Amundsen Sea</t>
-  </si>
-  <si>
-    <t>M883</t>
-  </si>
-  <si>
-    <t>Inland waters – Africa</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>Inland waters - North America</t>
-  </si>
-  <si>
-    <t>M02</t>
-  </si>
-  <si>
-    <t>Inland waters - South America</t>
-  </si>
-  <si>
-    <t>M03</t>
-  </si>
-  <si>
-    <t>Inland waters - Asia</t>
-  </si>
-  <si>
-    <t>M04</t>
-  </si>
-  <si>
-    <t>Inland waters - Europe</t>
-  </si>
-  <si>
-    <t>M05</t>
-  </si>
-  <si>
-    <t>Inland waters - Oceania</t>
-  </si>
-  <si>
-    <t>M06</t>
-  </si>
-  <si>
-    <t>Inland waters - Former Ussr Area</t>
-  </si>
-  <si>
-    <t>M07</t>
-  </si>
-  <si>
-    <t>Inland waters - Antarctica</t>
-  </si>
-  <si>
-    <t>M08</t>
-  </si>
-  <si>
-    <t>Arctic Sea</t>
-  </si>
-  <si>
-    <t>M18</t>
-  </si>
-  <si>
-    <t>Atlantic, Northwest</t>
-  </si>
-  <si>
-    <t>M21</t>
-  </si>
-  <si>
-    <t>Atlantic, Northeast</t>
-  </si>
-  <si>
-    <t>M27</t>
-  </si>
-  <si>
-    <t>Atlantic, Western-central</t>
-  </si>
-  <si>
-    <t>M31</t>
-  </si>
-  <si>
-    <t>Atlantic, Eastern-central</t>
-  </si>
-  <si>
-    <t>M34</t>
-  </si>
-  <si>
-    <t>Mediterranean and Black Sea</t>
-  </si>
-  <si>
-    <t>M37</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>Atlantic, Southwest</t>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>Atlantic, Southeast</t>
-  </si>
-  <si>
-    <t>M47</t>
-  </si>
-  <si>
-    <t>Atlantic, Antarctic</t>
-  </si>
-  <si>
-    <t>M48</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>M50</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Western</t>
-  </si>
-  <si>
-    <t>M51</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Eastern</t>
-  </si>
-  <si>
-    <t>M57</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Antarctic and Southern</t>
-  </si>
-  <si>
-    <t>M58</t>
-  </si>
-  <si>
-    <t>Pacific, Northwest</t>
-  </si>
-  <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>Pacific, Northeast</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
-    <t>Pacific, Western Central</t>
-  </si>
-  <si>
-    <t>M71</t>
-  </si>
-  <si>
-    <t>Pacific, Eastern Central</t>
-  </si>
-  <si>
-    <t>M77</t>
-  </si>
-  <si>
-    <t>Pacifc Ocean</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>Pacific, Southwest</t>
-  </si>
-  <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>Pacific, Southeast</t>
-  </si>
-  <si>
-    <t>M87</t>
-  </si>
-  <si>
-    <t>Pacific, Antarctic</t>
-  </si>
-  <si>
-    <t>M88</t>
-  </si>
-  <si>
-    <t>Unknown Area</t>
-  </si>
-  <si>
-    <t>M99</t>
-  </si>
-  <si>
-    <t>Spitzbergen And Bear Island - Neafc Reg. Area (27.II.b.1)</t>
-  </si>
-  <si>
-    <t>M27IIb1</t>
-  </si>
-  <si>
-    <t>Spitzbergen And Bear Island - Neafc Reg. Area (27.II.b.2)</t>
-  </si>
-  <si>
-    <t>M27IIb2</t>
-  </si>
-  <si>
-    <t>Azores Grounds (Division)</t>
-  </si>
-  <si>
-    <t>M27Xa</t>
-  </si>
-  <si>
-    <t>Northern Coastal (Atlantic)</t>
-  </si>
-  <si>
-    <t>M341</t>
-  </si>
-  <si>
-    <t>Northern Oceanic (Atlantic)</t>
-  </si>
-  <si>
-    <t>M342</t>
-  </si>
-  <si>
-    <t>Southern Coastal (Atlantic)</t>
-  </si>
-  <si>
-    <t>M343</t>
-  </si>
-  <si>
-    <t>Southern Oceanic (Atlantic)</t>
-  </si>
-  <si>
-    <t>M344</t>
-  </si>
-  <si>
-    <t>Black Sea (Division)</t>
-  </si>
-  <si>
-    <t>M3742</t>
-  </si>
-  <si>
-    <t>Northern (Atlantic)</t>
-  </si>
-  <si>
-    <t>M411</t>
-  </si>
-  <si>
-    <t>Central (Atlantic)</t>
-  </si>
-  <si>
-    <t>M412</t>
-  </si>
-  <si>
-    <t>Central Oceanic (Atlantic)</t>
-  </si>
-  <si>
-    <t>M4124</t>
-  </si>
-  <si>
-    <t>Southern (Atlantic)</t>
-  </si>
-  <si>
-    <t>M413</t>
-  </si>
-  <si>
-    <t>Seafo (47.A.0)</t>
-  </si>
-  <si>
-    <t>M47A0</t>
-  </si>
-  <si>
-    <t>Seafo (47.A.1)</t>
-  </si>
-  <si>
-    <t>M47A1</t>
-  </si>
-  <si>
-    <t>Seafo (47.B.0)</t>
-  </si>
-  <si>
-    <t>M47B0</t>
-  </si>
-  <si>
-    <t>Seafo (47.B.1)</t>
-  </si>
-  <si>
-    <t>M47B1</t>
-  </si>
-  <si>
-    <t>Seafo (47.C.0)</t>
-  </si>
-  <si>
-    <t>M47C0</t>
-  </si>
-  <si>
-    <t>Seafo (47.C.1)</t>
-  </si>
-  <si>
-    <t>M47C1</t>
-  </si>
-  <si>
-    <t>Seafo (47.D.0)</t>
-  </si>
-  <si>
-    <t>M47D0</t>
-  </si>
-  <si>
-    <t>Seafo (47.D.1)</t>
-  </si>
-  <si>
-    <t>M47D1</t>
-  </si>
-  <si>
-    <t>Oceanic (M51.7)</t>
-  </si>
-  <si>
-    <t>M517</t>
-  </si>
-  <si>
-    <t>Northern (Indian)</t>
-  </si>
-  <si>
-    <t>M572</t>
-  </si>
-  <si>
-    <t>Central (Indian)</t>
-  </si>
-  <si>
-    <t>M573</t>
-  </si>
-  <si>
-    <t>Oceanic (M57.4)</t>
-  </si>
-  <si>
-    <t>M574</t>
-  </si>
-  <si>
-    <t>Northern (Pacific)</t>
-  </si>
-  <si>
-    <t>M871</t>
-  </si>
-  <si>
-    <t>Northern Coastal (Pacific)</t>
-  </si>
-  <si>
-    <t>M8711</t>
-  </si>
-  <si>
-    <t>Northern Oceanic (Pacific)</t>
-  </si>
-  <si>
-    <t>M8714</t>
-  </si>
-  <si>
-    <t>Central (Pacific)</t>
-  </si>
-  <si>
-    <t>M872</t>
-  </si>
-  <si>
-    <t>Central Oceanic (Pacific)</t>
-  </si>
-  <si>
-    <t>M8726</t>
-  </si>
-  <si>
-    <t>Southern (Pacific)</t>
-  </si>
-  <si>
-    <t>M873</t>
-  </si>
-  <si>
-    <t>Southern Coastal (Pacific)</t>
-  </si>
-  <si>
-    <t>M8731</t>
-  </si>
-  <si>
-    <t>Southern Oceanic (Pacific)</t>
-  </si>
-  <si>
-    <t>M8733</t>
   </si>
 </sst>
 </file>
